--- a/test-data/orange-test-data.xlsx
+++ b/test-data/orange-test-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Time at Work</t>
+  </si>
+  <si>
+    <t>bala</t>
+  </si>
+  <si>
+    <t>baka</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -401,10 +407,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2222332</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -412,12 +418,23 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2222332</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
